--- a/file/confirm/学工_1.2_自定义代码确认.xlsx
+++ b/file/confirm/学工_1.2_自定义代码确认.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zh\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17860AA-1E43-4E41-A375-5C12CCF7D429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2664" yWindow="576" windowWidth="19104" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,9 +25,6 @@
     <t>代码名称</t>
   </si>
   <si>
-    <t>代码编码</t>
-  </si>
-  <si>
     <t>代码</t>
   </si>
   <si>
@@ -428,17 +431,21 @@
   </si>
   <si>
     <t>新增</t>
+  </si>
+  <si>
+    <t>代码爱思发发森</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -446,8 +453,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -493,15 +507,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,7 +565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,9 +597,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,6 +649,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -784,2644 +842,2648 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="98.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="98.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1001</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1002</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1003</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1004</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1005</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>1006</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1007</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1008</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>1009</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>1010</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>1011</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>2001</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>2002</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>2003</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>2004</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>2005</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>2006</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>2007</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>2008</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>2009</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>2010</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>2011</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>2012</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>2013</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>2014</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>2015</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>2016</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>3001</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>3002</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>3003</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>3004</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>3005</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>3006</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
         <v>57</v>
-      </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
       </c>
       <c r="C46">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
         <v>64</v>
-      </c>
-      <c r="C52">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" t="s">
-        <v>65</v>
       </c>
       <c r="C53">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
         <v>66</v>
-      </c>
-      <c r="E54" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" t="s">
-        <v>67</v>
       </c>
       <c r="C55">
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
         <v>73</v>
-      </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" t="s">
-        <v>74</v>
       </c>
       <c r="C62">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64">
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66">
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
         <v>79</v>
-      </c>
-      <c r="C67">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" t="s">
-        <v>66</v>
-      </c>
-      <c r="G67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>80</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69">
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
         <v>83</v>
-      </c>
-      <c r="C71">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" t="s">
-        <v>66</v>
-      </c>
-      <c r="G71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
       </c>
       <c r="C72">
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74">
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75">
         <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G75" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76">
         <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G76" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77">
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G77" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78">
         <v>31</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79">
         <v>32</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80">
         <v>34</v>
       </c>
       <c r="D80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81">
         <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G81" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82">
         <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G82" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C83">
         <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G83" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84">
         <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G84" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85">
         <v>42</v>
       </c>
       <c r="D85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G85" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86">
         <v>50</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G86" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87">
         <v>60</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G87" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88">
         <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G88" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89">
         <v>80</v>
       </c>
       <c r="D89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G89" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90">
         <v>90</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G90" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91">
         <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G91" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>110</v>
       </c>
       <c r="D92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93">
         <v>120</v>
       </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G93" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C94">
         <v>130</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G94" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96">
         <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C97">
         <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99">
         <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C100">
         <v>39</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C101">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102">
         <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103">
         <v>49</v>
       </c>
       <c r="D103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C104">
         <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E104" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F104" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C105">
         <v>51</v>
       </c>
       <c r="D105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G105" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C106">
         <v>52</v>
       </c>
       <c r="D106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G106" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C107">
         <v>53</v>
       </c>
       <c r="D107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C108">
         <v>54</v>
       </c>
       <c r="D108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C109">
         <v>55</v>
       </c>
       <c r="D109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C110">
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C111">
         <v>91</v>
       </c>
       <c r="D111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C112">
         <v>92</v>
       </c>
       <c r="D112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113">
         <v>93</v>
       </c>
       <c r="D113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114">
         <v>99</v>
       </c>
       <c r="D114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E114" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F114" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>